--- a/task2/oblig5 II mysqschema.xlsx
+++ b/task2/oblig5 II mysqschema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/runebergh/Dropbox/Dokumenter/databasefaget/oblig 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/runebergh/Dropbox/Dokumenter/databasefaget/oblig 5/task2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="2780" windowWidth="33600" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>county</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>EntryID</t>
+  </si>
+  <si>
+    <t>pk</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -217,6 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Benyttet hyperkobling" xfId="2" builtinId="9" hidden="1"/>
@@ -499,7 +503,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,6 +548,9 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="7"/>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -571,6 +578,9 @@
         <v>20</v>
       </c>
       <c r="C14" s="6"/>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -607,6 +617,9 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
@@ -649,7 +662,7 @@
     <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>